--- a/Excel/042_SOMA_SE.xlsx
+++ b/Excel/042_SOMA_SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE98D5B2-9E92-4BCF-98B0-C24BD300974E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1082D5EA-477F-45A8-8048-9A3FF7E87AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="5" activeTab="10" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="6" activeTab="12" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Exemplo 1" sheetId="2" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1462,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6233D041-F400-456D-A371-231E0A215B0F}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="94" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -1721,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B201B6-37DE-4340-BEB4-83B1DDE367C3}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1776,7 +1776,10 @@
       <c r="C5" s="12">
         <v>100</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="23">
+        <f>SUMIFS(C4:C15,B4:B15,"&gt;=01/01/2016",B4:B15,"&lt;=31/12/2021")</f>
+        <v>12000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A6" s="10" t="s">
@@ -1852,7 +1855,10 @@
       <c r="C11" s="12">
         <v>3000</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="23">
+        <f>SUMIFS(C4:C15,B4:B15,"&gt;=01/01/2016",B4:B15,"&lt;=31/12/2021",C4:C15,"&lt;=4000")</f>
+        <v>7000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A12" s="10" t="s">
@@ -1907,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680477CE-ACBB-4D24-AB59-07FB68593760}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="94" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1919,22 +1925,17 @@
     <col min="5" max="5" width="23.69140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.84375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.23046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.53515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="27.765625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="32.3046875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.23046875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="17.4609375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="18.765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="28.3" x14ac:dyDescent="0.75">
@@ -2047,27 +2048,81 @@
       <c r="E6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
+      <c r="F6" s="20">
+        <f>SUMIFS($C$4:$C$77,$A$4:$A$77,$E6,$B$4:$B$77,F$5)</f>
+        <v>2522</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:W13" si="0">SUMIFS($C$4:$C$77,$A$4:$A$77,$E6,$B$4:$B$77,G$5)</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="0"/>
+        <v>2202</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="0"/>
+        <v>2178</v>
+      </c>
+      <c r="V6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <f t="shared" si="0"/>
+        <v>4738</v>
+      </c>
       <c r="X6" s="22">
         <f>SUM(F6:W6)</f>
-        <v>0</v>
+        <v>11640</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2083,27 +2138,81 @@
       <c r="E7" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
+      <c r="F7" s="20">
+        <f>SUMIFS($C$4:$C$77,$A$4:$A$77,$E7,$B$4:$B$77,F$5)</f>
+        <v>1976</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="0"/>
+        <v>2497</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="0"/>
+        <v>1708</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="0"/>
+        <v>5193</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="0"/>
+        <v>1852</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="X7" s="22">
-        <f t="shared" ref="X7:X13" si="0">SUM(F7:W7)</f>
-        <v>0</v>
+        <f t="shared" ref="X7:X13" si="1">SUM(F7:W7)</f>
+        <v>13226</v>
       </c>
     </row>
     <row r="8" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2119,27 +2228,81 @@
       <c r="E8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
+      <c r="F8" s="20">
+        <f t="shared" ref="F7:F13" si="2">SUMIFS($C$4:$C$77,$A$4:$A$77,$E8,$B$4:$B$77,F$5)</f>
+        <v>2252</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="0"/>
+        <v>6200</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="0"/>
+        <v>2269</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="0"/>
+        <v>2775</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="X8" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13496</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2155,27 +2318,81 @@
       <c r="E9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
+      <c r="F9" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="0"/>
+        <v>3665</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="0"/>
+        <v>1282</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="0"/>
+        <v>3023</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="X9" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7970</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2191,27 +2408,81 @@
       <c r="E10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
+      <c r="F10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>2953</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="0"/>
+        <v>3366</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="0"/>
+        <v>4099</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="20">
+        <f t="shared" si="0"/>
+        <v>3109</v>
+      </c>
+      <c r="W10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="X10" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13527</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2227,27 +2498,81 @@
       <c r="E11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>6004</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>1243</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="0"/>
+        <v>1717</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" si="0"/>
+        <v>1725</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="0"/>
+        <v>3064</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="0"/>
+        <v>3077</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="X11" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>16830</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2263,27 +2588,81 @@
       <c r="E12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="0"/>
+        <v>1516</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="0"/>
+        <v>1945</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="0"/>
+        <v>2971</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="X12" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6432</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2299,27 +2678,81 @@
       <c r="E13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="0"/>
+        <v>2614</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="0"/>
+        <v>2820</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="0"/>
+        <v>1727</v>
+      </c>
       <c r="X13" s="22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>7161</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -2337,79 +2770,79 @@
       </c>
       <c r="F14" s="22">
         <f>SUM(F6:F13)</f>
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" ref="G14:X14" si="1">SUM(G6:G13)</f>
-        <v>0</v>
+        <f t="shared" ref="G14:X14" si="3">SUM(G6:G13)</f>
+        <v>6004</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3665</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6200</v>
       </c>
       <c r="J14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4196</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2999</v>
       </c>
       <c r="L14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>8007</v>
       </c>
       <c r="M14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5311</v>
       </c>
       <c r="N14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4772</v>
       </c>
       <c r="O14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2775</v>
       </c>
       <c r="P14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3077</v>
       </c>
       <c r="Q14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>4099</v>
       </c>
       <c r="R14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7807</v>
       </c>
       <c r="S14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>3023</v>
       </c>
       <c r="T14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>2202</v>
       </c>
       <c r="U14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>7001</v>
       </c>
       <c r="V14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5929</v>
       </c>
       <c r="W14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>6465</v>
       </c>
       <c r="X14" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>90282</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="26.15" x14ac:dyDescent="0.7">
@@ -7063,6 +7496,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -7259,22 +7707,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7291,29 +7749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel/042_SOMA_SE.xlsx
+++ b/Excel/042_SOMA_SE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1082D5EA-477F-45A8-8048-9A3FF7E87AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5C99F-3D48-45DB-89D5-4B7C3594A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="6" activeTab="12" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="88">
   <si>
     <t>Bruna Alves</t>
   </si>
@@ -364,6 +364,12 @@
   </si>
   <si>
     <t>=SOMASES(D4:D15;C4:C15;"&lt;=23";D4:D15;"&lt;=2000")</t>
+  </si>
+  <si>
+    <t>Feminino(a)</t>
+  </si>
+  <si>
+    <t>Masculino(a)</t>
   </si>
 </sst>
 </file>
@@ -1913,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680477CE-ACBB-4D24-AB59-07FB68593760}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1923,7 +1929,7 @@
     <col min="2" max="2" width="37.84375" style="2" customWidth="1"/>
     <col min="3" max="3" width="29.07421875" customWidth="1"/>
     <col min="5" max="5" width="23.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="18.765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
@@ -2229,7 +2235,7 @@
         <v>59</v>
       </c>
       <c r="F8" s="20">
-        <f t="shared" ref="F7:F13" si="2">SUMIFS($C$4:$C$77,$A$4:$A$77,$E8,$B$4:$B$77,F$5)</f>
+        <f t="shared" ref="F8:F13" si="2">SUMIFS($C$4:$C$77,$A$4:$A$77,$E8,$B$4:$B$77,F$5)</f>
         <v>2252</v>
       </c>
       <c r="G8" s="20">
@@ -2881,9 +2887,12 @@
         <v>1251</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="23"/>
+        <v>84</v>
+      </c>
+      <c r="F17" s="23">
+        <f>SUMIFS(C:C,B:B,"*"&amp;E17&amp;"*")</f>
+        <v>30367</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A18" s="10" t="s">
@@ -2898,7 +2907,10 @@
       <c r="E18" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="23">
+        <f>SUMIFS(C:C,B:B,"*"&amp;E18&amp;"*")</f>
+        <v>5929</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A19" s="10" t="s">
@@ -2936,9 +2948,12 @@
         <v>989</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="F21" s="23">
+        <f>SUM(SUMIFS(C:C,B:B,"*"&amp;{"Masculina";"Masculino"}&amp;"*"))</f>
+        <v>32227</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A22" s="10" t="s">
@@ -2951,9 +2966,12 @@
         <v>1127</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="23"/>
+        <v>86</v>
+      </c>
+      <c r="F22" s="23">
+        <f>SUM(SUMIFS(C:C,B:B,"*"&amp;{"Feminino";"Feminina"}&amp;"*"))</f>
+        <v>8928</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A23" s="10" t="s">
@@ -7496,21 +7514,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -7707,32 +7710,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7749,4 +7742,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{266DECCE-BB42-4B71-9D6C-EC24543CD393}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="45cbc027-4fdb-4325-ba4c-14e20f088a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel/042_SOMA_SE.xlsx
+++ b/Excel/042_SOMA_SE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\Documentos\Udemy\EXCEL + POWER BI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5C99F-3D48-45DB-89D5-4B7C3594A705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939BF480-FB98-4B24-A11A-B9F22250E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="17914" tabRatio="809" firstSheet="6" activeTab="12" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
+    <workbookView minimized="1" xWindow="2631" yWindow="3291" windowWidth="16115" windowHeight="14075" tabRatio="809" firstSheet="7" activeTab="12" xr2:uid="{2E65B82F-5866-47B8-BB74-66991D6C79DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Professor Exemplo 1" sheetId="2" r:id="rId1"/>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680477CE-ACBB-4D24-AB59-07FB68593760}">
   <dimension ref="A1:X77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7514,6 +7514,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f484b9883a95de778a6ce333a5c9fbe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="918a0d7af8be30ff2596a9f3dd2488fd" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -7710,15 +7719,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -7726,6 +7726,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1DF8C6D0-BDB8-4D22-A8A4-DEAEBC30EDA1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7740,14 +7748,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8981F02B-5252-40A8-85C9-6E028D5DC5D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
